--- a/LISTA DE ASISTENCIA.xlsx
+++ b/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\CEPSUNI\CEPSUNI-DISBD-63948\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869E2BEC-6960-4F13-9003-E1B5473B7A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E6437E-5F77-4462-B89B-1FDF74AE3527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="rptAsistenciaxAlumno" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rptAsistenciaxAlumno!$A$1:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rptAsistenciaxAlumno!$A$1:$E$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">rptAsistenciaxAlumno!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>N°</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>GPO</t>
+  </si>
+  <si>
+    <t>GALINDO CISNEROS KALEF ALEJANDRO</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -382,20 +385,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -782,636 +773,571 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="16">
+      <c r="C2" s="12">
         <v>5</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="16">
+      <c r="C4" s="12">
         <v>4</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="17">
+      <c r="C5" s="13">
         <v>6</v>
       </c>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="16">
+      <c r="C6" s="12">
         <v>3</v>
       </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="16">
+      <c r="C7" s="12">
         <v>2</v>
       </c>
+      <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="16">
+      <c r="C8" s="12">
         <v>7</v>
       </c>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="16">
+      <c r="C9" s="12">
         <v>3</v>
       </c>
+      <c r="D9" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="E9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="16">
+      <c r="C10" s="12">
         <v>2</v>
       </c>
+      <c r="D10" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="16">
+      <c r="C11" s="12">
         <v>2</v>
       </c>
+      <c r="D11" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="16">
+      <c r="C12" s="12">
         <v>2</v>
       </c>
+      <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="16">
+      <c r="C13" s="12">
         <v>2</v>
       </c>
+      <c r="D13" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="16">
+      <c r="C14" s="12">
         <v>2</v>
       </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="16">
+      <c r="C15" s="12">
         <v>2</v>
       </c>
+      <c r="D15" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="16">
+      <c r="C16" s="12">
         <v>4</v>
       </c>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="16">
+      <c r="C17" s="12">
         <v>3</v>
       </c>
+      <c r="D17" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="E17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="16">
-        <v>7</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="16">
+        <v>17</v>
+      </c>
+      <c r="C19" s="12">
         <v>7</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="16">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="12">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="12">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="16">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="16">
+        <v>21</v>
+      </c>
+      <c r="C23" s="12">
         <v>6</v>
       </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="16">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="C24" s="12">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="16">
+        <v>23</v>
+      </c>
+      <c r="C25" s="12">
         <v>4</v>
       </c>
+      <c r="D25" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="C26" s="12">
+        <v>4</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="16">
-        <v>5</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="16">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="C28" s="12">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="16">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="C29" s="12">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="16">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="12">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="16">
-        <v>5</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="12">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="12">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="E32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="16">
+      <c r="C34" s="12">
         <v>5</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F33" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1" showButton="0"/>
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="33">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-  </mergeCells>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.196850393700787" bottom="0.78740157480314998" header="0.196850393700787" footer="0.196850393700787"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
